--- a/output/questionnaires/2020-09-27_aargau.xlsx
+++ b/output/questionnaires/2020-09-27_aargau.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$105:$M$128</definedName>
@@ -6324,6 +6324,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/output/questionnaires/2020-09-27_aargau.xlsx
+++ b/output/questionnaires/2020-09-27_aargau.xlsx
@@ -1401,7 +1401,7 @@
     <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Bitte geben Sie für die Höheren Kinder- und Fremdbetreuungsabzüge einen Wert an zwischen 0 (überhaupt nicht informiert) und 10 (sehr gut informiert).</t>
+    <t xml:space="preserve">Bitte geben Sie für die höheren Steuerabzüge für Kinder- und Fremdbetreuung einen Wert an zwischen 0 (überhaupt nicht informiert) und 10 (sehr gut informiert).</t>
   </si>
   <si>
     <t xml:space="preserve">information_level_federal_proposal_3</t>
@@ -6327,7 +6327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>

--- a/output/questionnaires/2020-09-27_aargau.xlsx
+++ b/output/questionnaires/2020-09-27_aargau.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$105:$M$128</definedName>
-    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$1084:$M$1086</definedName>
+    <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$1126:$M$1128</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$134:$M$144</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$148:$M$200</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$204:$M$597</definedName>
@@ -20,8 +20,8 @@
     <definedName function="false" hidden="false" name="HTML_6" vbProcedure="false">Sheet1!$A$630:$M$654</definedName>
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$658:$M$787</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$793:$M$911</definedName>
-    <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$919:$M$1078</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1129</definedName>
+    <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$919:$M$1120</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1171</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="1746">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Abstimmungstermin vom 27. September 2020</t>
   </si>
@@ -5292,6 +5292,90 @@
   </si>
   <si>
     <t xml:space="preserve">importance (reduced) the respondent attaches to the cantonal proposal “Energiegesetz des Kantons Aargau (EnergieG)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad kantonale Vorlage 1 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cantonal_proposal_1_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cp_1_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the cantonal proposal “Neuorganisation der Führungsstrukturen der Aargauer Volksschule”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad kantonale Vorlage 2 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cantonal_proposal_2_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cp_2_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the cantonal proposal “Energiegesetz des Kantons Aargau (EnergieG)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 1 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_1_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_1_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Volksinitiative «Für eine massvolle Zuwanderung (Begrenzungsinitiative)»”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 2 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_2_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_2_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Änderung des Jagdgesetzes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 3 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_3_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_3_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Änderung des Bundesgesetzes über die direkte Bundessteuer (Steuerliche Berücksichtigung der Kinderdrittbetreuungskosten)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 4 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_4_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_4_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Änderung des Erwerbsersatzgesetzes (indirekter Gegenvorschlag zur Volksinitiative «Für einen vernünftigen Vaterschaftsurlaub – zum Nutzen der ganzen Familie»)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 5 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_5_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_5_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Bundesbeschluss über die Beschaffung neuer Kampfflugzeuge”</t>
   </si>
   <si>
     <t xml:space="preserve">Verständnisschwierigkeit kantonale Vorlage 1 (reduziert)</t>
@@ -6437,7 +6521,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1129"/>
+  <dimension ref="A1:M1171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -29029,8 +29113,8 @@
       <c r="C1009" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D1009" s="8" t="s">
-        <v>63</v>
+      <c r="D1009" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="E1009" s="8" t="s">
         <v>64</v>
@@ -29045,13 +29129,13 @@
         <v>1574</v>
       </c>
       <c r="I1009" s="4" t="s">
-        <v>1575</v>
+        <v>1557</v>
       </c>
       <c r="J1009" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1009" s="4" t="s">
-        <v>1576</v>
+        <v>1558</v>
       </c>
       <c r="L1009" s="8" t="s">
         <v>64</v>
@@ -29064,17 +29148,17 @@
       <c r="A1010" s="8"/>
       <c r="B1010" s="8"/>
       <c r="C1010" s="8"/>
-      <c r="D1010" s="8"/>
+      <c r="D1010" s="4"/>
       <c r="E1010" s="8"/>
       <c r="F1010" s="8"/>
       <c r="G1010" s="8"/>
       <c r="H1010" s="8"/>
       <c r="I1010" s="4" t="s">
-        <v>1577</v>
+        <v>1559</v>
       </c>
       <c r="J1010" s="8"/>
       <c r="K1010" s="4" t="s">
-        <v>1578</v>
+        <v>1560</v>
       </c>
       <c r="L1010" s="8"/>
       <c r="M1010" s="8"/>
@@ -29083,86 +29167,66 @@
       <c r="A1011" s="8"/>
       <c r="B1011" s="8"/>
       <c r="C1011" s="8"/>
-      <c r="D1011" s="8"/>
+      <c r="D1011" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="E1011" s="8"/>
       <c r="F1011" s="8"/>
       <c r="G1011" s="8"/>
       <c r="H1011" s="8"/>
       <c r="I1011" s="4" t="s">
-        <v>164</v>
+        <v>1561</v>
       </c>
       <c r="J1011" s="8"/>
       <c r="K1011" s="4" t="s">
-        <v>165</v>
+        <v>1562</v>
       </c>
       <c r="L1011" s="8"/>
       <c r="M1011" s="8"/>
     </row>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="8" t="n">
-        <v>3024</v>
-      </c>
-      <c r="B1012" s="8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C1012" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1012" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1012" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1012" s="8" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G1012" s="8" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H1012" s="8" t="s">
-        <v>1582</v>
-      </c>
+    <row r="1012" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="8"/>
+      <c r="C1012" s="8"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="8"/>
+      <c r="F1012" s="8"/>
+      <c r="G1012" s="8"/>
+      <c r="H1012" s="8"/>
       <c r="I1012" s="4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="J1012" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1563</v>
+      </c>
+      <c r="J1012" s="8"/>
       <c r="K1012" s="4" t="s">
-        <v>1576</v>
-      </c>
-      <c r="L1012" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1012" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1564</v>
+      </c>
+      <c r="L1012" s="8"/>
+      <c r="M1012" s="8"/>
+    </row>
+    <row r="1013" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="8"/>
       <c r="B1013" s="8"/>
       <c r="C1013" s="8"/>
-      <c r="D1013" s="8"/>
+      <c r="D1013" s="1"/>
       <c r="E1013" s="8"/>
       <c r="F1013" s="8"/>
       <c r="G1013" s="8"/>
       <c r="H1013" s="8"/>
       <c r="I1013" s="4" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="J1013" s="8"/>
       <c r="K1013" s="4" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="L1013" s="8"/>
       <c r="M1013" s="8"/>
     </row>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1014" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="8"/>
       <c r="B1014" s="8"/>
       <c r="C1014" s="8"/>
-      <c r="D1014" s="8"/>
+      <c r="D1014" s="1"/>
       <c r="E1014" s="8"/>
       <c r="F1014" s="8"/>
       <c r="G1014" s="8"/>
@@ -29179,37 +29243,37 @@
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="8" t="n">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B1015" s="8" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="C1015" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1015" s="9" t="s">
-        <v>605</v>
+        <v>62</v>
+      </c>
+      <c r="D1015" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="E1015" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1015" s="8" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="G1015" s="8" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="H1015" s="8" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="I1015" s="4" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
       <c r="J1015" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1015" s="4" t="s">
-        <v>1588</v>
+        <v>1558</v>
       </c>
       <c r="L1015" s="8" t="s">
         <v>64</v>
@@ -29228,55 +29292,33 @@
       <c r="G1016" s="8"/>
       <c r="H1016" s="8"/>
       <c r="I1016" s="4" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
       <c r="J1016" s="8"/>
       <c r="K1016" s="4" t="s">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="L1016" s="8"/>
       <c r="M1016" s="8"/>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="8" t="n">
-        <v>3026</v>
-      </c>
-      <c r="B1017" s="8" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C1017" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1017" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="E1017" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1017" s="8" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G1017" s="8" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H1017" s="8" t="s">
-        <v>1594</v>
-      </c>
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="8"/>
+      <c r="D1017" s="8"/>
+      <c r="E1017" s="8"/>
+      <c r="F1017" s="8"/>
+      <c r="G1017" s="8"/>
+      <c r="H1017" s="8"/>
       <c r="I1017" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1017" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1561</v>
+      </c>
+      <c r="J1017" s="8"/>
       <c r="K1017" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1017" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1017" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1562</v>
+      </c>
+      <c r="L1017" s="8"/>
+      <c r="M1017" s="8"/>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="8"/>
@@ -29288,55 +29330,33 @@
       <c r="G1018" s="8"/>
       <c r="H1018" s="8"/>
       <c r="I1018" s="4" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="J1018" s="8"/>
       <c r="K1018" s="4" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="L1018" s="8"/>
       <c r="M1018" s="8"/>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="8" t="n">
-        <v>3027</v>
-      </c>
-      <c r="B1019" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C1019" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1019" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="E1019" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1019" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G1019" s="8" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H1019" s="8" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="8"/>
+      <c r="D1019" s="8"/>
+      <c r="E1019" s="8"/>
+      <c r="F1019" s="8"/>
+      <c r="G1019" s="8"/>
+      <c r="H1019" s="8"/>
       <c r="I1019" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1019" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1565</v>
+      </c>
+      <c r="J1019" s="8"/>
       <c r="K1019" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1019" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1019" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1566</v>
+      </c>
+      <c r="L1019" s="8"/>
+      <c r="M1019" s="8"/>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="8"/>
@@ -29348,48 +29368,48 @@
       <c r="G1020" s="8"/>
       <c r="H1020" s="8"/>
       <c r="I1020" s="4" t="s">
-        <v>1589</v>
+        <v>164</v>
       </c>
       <c r="J1020" s="8"/>
       <c r="K1020" s="4" t="s">
-        <v>1590</v>
+        <v>165</v>
       </c>
       <c r="L1020" s="8"/>
       <c r="M1020" s="8"/>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="8" t="n">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="B1021" s="8" t="s">
-        <v>1599</v>
+        <v>1579</v>
       </c>
       <c r="C1021" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1021" s="9" t="s">
-        <v>639</v>
+        <v>62</v>
+      </c>
+      <c r="D1021" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="E1021" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1021" s="8" t="s">
-        <v>1600</v>
+        <v>1580</v>
       </c>
       <c r="G1021" s="8" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="H1021" s="8" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="I1021" s="4" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
       <c r="J1021" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1021" s="4" t="s">
-        <v>1588</v>
+        <v>1558</v>
       </c>
       <c r="L1021" s="8" t="s">
         <v>64</v>
@@ -29402,174 +29422,132 @@
       <c r="A1022" s="8"/>
       <c r="B1022" s="8"/>
       <c r="C1022" s="8"/>
-      <c r="D1022" s="8"/>
+      <c r="D1022" s="4"/>
       <c r="E1022" s="8"/>
       <c r="F1022" s="8"/>
       <c r="G1022" s="8"/>
       <c r="H1022" s="8"/>
       <c r="I1022" s="4" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
       <c r="J1022" s="8"/>
       <c r="K1022" s="4" t="s">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="L1022" s="8"/>
       <c r="M1022" s="8"/>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="8" t="n">
-        <v>3029</v>
-      </c>
-      <c r="B1023" s="8" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C1023" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1023" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="E1023" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1023" s="8" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G1023" s="8" t="s">
-        <v>1605</v>
-      </c>
-      <c r="H1023" s="8" t="s">
-        <v>1606</v>
-      </c>
+      <c r="A1023" s="8"/>
+      <c r="B1023" s="8"/>
+      <c r="C1023" s="8"/>
+      <c r="D1023" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1023" s="8"/>
+      <c r="F1023" s="8"/>
+      <c r="G1023" s="8"/>
+      <c r="H1023" s="8"/>
       <c r="I1023" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1023" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1561</v>
+      </c>
+      <c r="J1023" s="8"/>
       <c r="K1023" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1023" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1023" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1562</v>
+      </c>
+      <c r="L1023" s="8"/>
+      <c r="M1023" s="8"/>
+    </row>
+    <row r="1024" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="8"/>
       <c r="B1024" s="8"/>
       <c r="C1024" s="8"/>
-      <c r="D1024" s="8"/>
+      <c r="D1024" s="1"/>
       <c r="E1024" s="8"/>
       <c r="F1024" s="8"/>
       <c r="G1024" s="8"/>
       <c r="H1024" s="8"/>
       <c r="I1024" s="4" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="J1024" s="8"/>
       <c r="K1024" s="4" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="L1024" s="8"/>
       <c r="M1024" s="8"/>
     </row>
-    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="8" t="n">
-        <v>3030</v>
-      </c>
-      <c r="B1025" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C1025" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1025" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="E1025" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1025" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G1025" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H1025" s="8" t="s">
-        <v>1610</v>
-      </c>
+    <row r="1025" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="8"/>
+      <c r="B1025" s="8"/>
+      <c r="C1025" s="8"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="8"/>
+      <c r="F1025" s="8"/>
+      <c r="G1025" s="8"/>
+      <c r="H1025" s="8"/>
       <c r="I1025" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1025" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1565</v>
+      </c>
+      <c r="J1025" s="8"/>
       <c r="K1025" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1025" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1025" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1566</v>
+      </c>
+      <c r="L1025" s="8"/>
+      <c r="M1025" s="8"/>
+    </row>
+    <row r="1026" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="8"/>
       <c r="B1026" s="8"/>
       <c r="C1026" s="8"/>
-      <c r="D1026" s="8"/>
+      <c r="D1026" s="1"/>
       <c r="E1026" s="8"/>
       <c r="F1026" s="8"/>
       <c r="G1026" s="8"/>
       <c r="H1026" s="8"/>
       <c r="I1026" s="4" t="s">
-        <v>1589</v>
+        <v>164</v>
       </c>
       <c r="J1026" s="8"/>
       <c r="K1026" s="4" t="s">
-        <v>1590</v>
+        <v>165</v>
       </c>
       <c r="L1026" s="8"/>
       <c r="M1026" s="8"/>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="8" t="n">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="B1027" s="8" t="s">
-        <v>1611</v>
+        <v>1583</v>
       </c>
       <c r="C1027" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1027" s="9" t="s">
-        <v>673</v>
+        <v>62</v>
+      </c>
+      <c r="D1027" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="E1027" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1027" s="8" t="s">
-        <v>1612</v>
+        <v>1584</v>
       </c>
       <c r="G1027" s="8" t="s">
-        <v>1613</v>
+        <v>1585</v>
       </c>
       <c r="H1027" s="8" t="s">
-        <v>1614</v>
+        <v>1586</v>
       </c>
       <c r="I1027" s="4" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
       <c r="J1027" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1027" s="4" t="s">
-        <v>1588</v>
+        <v>1558</v>
       </c>
       <c r="L1027" s="8" t="s">
         <v>64</v>
@@ -29588,55 +29566,33 @@
       <c r="G1028" s="8"/>
       <c r="H1028" s="8"/>
       <c r="I1028" s="4" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
       <c r="J1028" s="8"/>
       <c r="K1028" s="4" t="s">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="L1028" s="8"/>
       <c r="M1028" s="8"/>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="8" t="n">
-        <v>3032</v>
-      </c>
-      <c r="B1029" s="8" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C1029" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1029" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="E1029" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1029" s="8" t="s">
-        <v>1616</v>
-      </c>
-      <c r="G1029" s="8" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H1029" s="8" t="s">
-        <v>1618</v>
-      </c>
+      <c r="A1029" s="8"/>
+      <c r="B1029" s="8"/>
+      <c r="C1029" s="8"/>
+      <c r="D1029" s="8"/>
+      <c r="E1029" s="8"/>
+      <c r="F1029" s="8"/>
+      <c r="G1029" s="8"/>
+      <c r="H1029" s="8"/>
       <c r="I1029" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1029" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1561</v>
+      </c>
+      <c r="J1029" s="8"/>
       <c r="K1029" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1029" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1029" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1562</v>
+      </c>
+      <c r="L1029" s="8"/>
+      <c r="M1029" s="8"/>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="8"/>
@@ -29648,55 +29604,33 @@
       <c r="G1030" s="8"/>
       <c r="H1030" s="8"/>
       <c r="I1030" s="4" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="J1030" s="8"/>
       <c r="K1030" s="4" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="L1030" s="8"/>
       <c r="M1030" s="8"/>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="8" t="n">
-        <v>3033</v>
-      </c>
-      <c r="B1031" s="8" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C1031" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1031" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="E1031" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1031" s="8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G1031" s="8" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H1031" s="8" t="s">
-        <v>1622</v>
-      </c>
+      <c r="A1031" s="8"/>
+      <c r="B1031" s="8"/>
+      <c r="C1031" s="8"/>
+      <c r="D1031" s="8"/>
+      <c r="E1031" s="8"/>
+      <c r="F1031" s="8"/>
+      <c r="G1031" s="8"/>
+      <c r="H1031" s="8"/>
       <c r="I1031" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1031" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1565</v>
+      </c>
+      <c r="J1031" s="8"/>
       <c r="K1031" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1031" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1031" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1566</v>
+      </c>
+      <c r="L1031" s="8"/>
+      <c r="M1031" s="8"/>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="8"/>
@@ -29708,48 +29642,48 @@
       <c r="G1032" s="8"/>
       <c r="H1032" s="8"/>
       <c r="I1032" s="4" t="s">
-        <v>1589</v>
+        <v>164</v>
       </c>
       <c r="J1032" s="8"/>
       <c r="K1032" s="4" t="s">
-        <v>1590</v>
+        <v>165</v>
       </c>
       <c r="L1032" s="8"/>
       <c r="M1032" s="8"/>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="8" t="n">
-        <v>3034</v>
+        <v>3027</v>
       </c>
       <c r="B1033" s="8" t="s">
-        <v>1623</v>
+        <v>1587</v>
       </c>
       <c r="C1033" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1033" s="9" t="s">
-        <v>707</v>
+        <v>62</v>
+      </c>
+      <c r="D1033" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="E1033" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1033" s="8" t="s">
-        <v>1624</v>
+        <v>1588</v>
       </c>
       <c r="G1033" s="8" t="s">
-        <v>1625</v>
+        <v>1589</v>
       </c>
       <c r="H1033" s="8" t="s">
-        <v>1626</v>
+        <v>1590</v>
       </c>
       <c r="I1033" s="4" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
       <c r="J1033" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1033" s="4" t="s">
-        <v>1588</v>
+        <v>1558</v>
       </c>
       <c r="L1033" s="8" t="s">
         <v>64</v>
@@ -29768,55 +29702,33 @@
       <c r="G1034" s="8"/>
       <c r="H1034" s="8"/>
       <c r="I1034" s="4" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
       <c r="J1034" s="8"/>
       <c r="K1034" s="4" t="s">
-        <v>1590</v>
+        <v>1560</v>
       </c>
       <c r="L1034" s="8"/>
       <c r="M1034" s="8"/>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="8" t="n">
-        <v>3035</v>
-      </c>
-      <c r="B1035" s="8" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C1035" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1035" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="E1035" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1035" s="8" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G1035" s="8" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H1035" s="8" t="s">
-        <v>1630</v>
-      </c>
+      <c r="A1035" s="8"/>
+      <c r="B1035" s="8"/>
+      <c r="C1035" s="8"/>
+      <c r="D1035" s="8"/>
+      <c r="E1035" s="8"/>
+      <c r="F1035" s="8"/>
+      <c r="G1035" s="8"/>
+      <c r="H1035" s="8"/>
       <c r="I1035" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1035" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1561</v>
+      </c>
+      <c r="J1035" s="8"/>
       <c r="K1035" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1035" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1035" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1562</v>
+      </c>
+      <c r="L1035" s="8"/>
+      <c r="M1035" s="8"/>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="8"/>
@@ -29828,55 +29740,33 @@
       <c r="G1036" s="8"/>
       <c r="H1036" s="8"/>
       <c r="I1036" s="4" t="s">
-        <v>1589</v>
+        <v>1563</v>
       </c>
       <c r="J1036" s="8"/>
       <c r="K1036" s="4" t="s">
-        <v>1590</v>
+        <v>1564</v>
       </c>
       <c r="L1036" s="8"/>
       <c r="M1036" s="8"/>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="8" t="n">
-        <v>3036</v>
-      </c>
-      <c r="B1037" s="8" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C1037" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1037" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="E1037" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1037" s="8" t="s">
-        <v>1632</v>
-      </c>
-      <c r="G1037" s="8" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H1037" s="8" t="s">
-        <v>1634</v>
-      </c>
+      <c r="A1037" s="8"/>
+      <c r="B1037" s="8"/>
+      <c r="C1037" s="8"/>
+      <c r="D1037" s="8"/>
+      <c r="E1037" s="8"/>
+      <c r="F1037" s="8"/>
+      <c r="G1037" s="8"/>
+      <c r="H1037" s="8"/>
       <c r="I1037" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J1037" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1565</v>
+      </c>
+      <c r="J1037" s="8"/>
       <c r="K1037" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L1037" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1037" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1566</v>
+      </c>
+      <c r="L1037" s="8"/>
+      <c r="M1037" s="8"/>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="8"/>
@@ -29888,219 +29778,131 @@
       <c r="G1038" s="8"/>
       <c r="H1038" s="8"/>
       <c r="I1038" s="4" t="s">
-        <v>1589</v>
+        <v>164</v>
       </c>
       <c r="J1038" s="8"/>
       <c r="K1038" s="4" t="s">
-        <v>1590</v>
+        <v>165</v>
       </c>
       <c r="L1038" s="8"/>
       <c r="M1038" s="8"/>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="4" t="n">
-        <v>3037</v>
-      </c>
-      <c r="B1039" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C1039" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1039" s="4" t="s">
+      <c r="A1039" s="8" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B1039" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C1039" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1039" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1039" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1039" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G1039" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H1039" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I1039" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J1039" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1039" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1039" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G1039" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H1039" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I1039" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1039" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="K1039" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1039" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1039" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L1039" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1039" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="4" t="n">
-        <v>3038</v>
-      </c>
-      <c r="B1040" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C1040" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1040" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1040" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1040" s="4" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G1040" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="H1040" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I1040" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1040" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1040" s="8"/>
+      <c r="B1040" s="8"/>
+      <c r="C1040" s="8"/>
+      <c r="D1040" s="8"/>
+      <c r="E1040" s="8"/>
+      <c r="F1040" s="8"/>
+      <c r="G1040" s="8"/>
+      <c r="H1040" s="8"/>
+      <c r="I1040" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J1040" s="8"/>
       <c r="K1040" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1040" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1040" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>1560</v>
+      </c>
+      <c r="L1040" s="8"/>
+      <c r="M1040" s="8"/>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="4" t="n">
-        <v>3039</v>
-      </c>
-      <c r="B1041" s="4" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C1041" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1041" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1041" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1041" s="4" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G1041" s="4" t="s">
-        <v>1645</v>
-      </c>
-      <c r="H1041" s="4" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I1041" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1041" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1041" s="8"/>
+      <c r="B1041" s="8"/>
+      <c r="C1041" s="8"/>
+      <c r="D1041" s="8"/>
+      <c r="E1041" s="8"/>
+      <c r="F1041" s="8"/>
+      <c r="G1041" s="8"/>
+      <c r="H1041" s="8"/>
+      <c r="I1041" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J1041" s="8"/>
       <c r="K1041" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1041" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1041" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>1562</v>
+      </c>
+      <c r="L1041" s="8"/>
+      <c r="M1041" s="8"/>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="4" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B1042" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C1042" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1042" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1042" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1042" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G1042" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H1042" s="4" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I1042" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1042" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1042" s="8"/>
+      <c r="B1042" s="8"/>
+      <c r="C1042" s="8"/>
+      <c r="D1042" s="8"/>
+      <c r="E1042" s="8"/>
+      <c r="F1042" s="8"/>
+      <c r="G1042" s="8"/>
+      <c r="H1042" s="8"/>
+      <c r="I1042" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J1042" s="8"/>
       <c r="K1042" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1042" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1042" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>1564</v>
+      </c>
+      <c r="L1042" s="8"/>
+      <c r="M1042" s="8"/>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="8" t="n">
-        <v>3041</v>
-      </c>
-      <c r="B1043" s="8" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C1043" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1043" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1043" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1043" s="8" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G1043" s="8" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H1043" s="8" t="s">
-        <v>1654</v>
-      </c>
+      <c r="A1043" s="8"/>
+      <c r="B1043" s="8"/>
+      <c r="C1043" s="8"/>
+      <c r="D1043" s="8"/>
+      <c r="E1043" s="8"/>
+      <c r="F1043" s="8"/>
+      <c r="G1043" s="8"/>
+      <c r="H1043" s="8"/>
       <c r="I1043" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1043" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1565</v>
+      </c>
+      <c r="J1043" s="8"/>
       <c r="K1043" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L1043" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1043" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1566</v>
+      </c>
+      <c r="L1043" s="8"/>
+      <c r="M1043" s="8"/>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="8"/>
@@ -30112,33 +29914,55 @@
       <c r="G1044" s="8"/>
       <c r="H1044" s="8"/>
       <c r="I1044" s="4" t="s">
-        <v>1657</v>
+        <v>164</v>
       </c>
       <c r="J1044" s="8"/>
       <c r="K1044" s="4" t="s">
-        <v>1658</v>
+        <v>165</v>
       </c>
       <c r="L1044" s="8"/>
       <c r="M1044" s="8"/>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="8"/>
-      <c r="B1045" s="8"/>
-      <c r="C1045" s="8"/>
-      <c r="D1045" s="8"/>
-      <c r="E1045" s="8"/>
-      <c r="F1045" s="8"/>
-      <c r="G1045" s="8"/>
-      <c r="H1045" s="8"/>
+      <c r="A1045" s="8" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B1045" s="8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C1045" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1045" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1045" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1045" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G1045" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H1045" s="8" t="s">
+        <v>1598</v>
+      </c>
       <c r="I1045" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J1045" s="8"/>
+        <v>1557</v>
+      </c>
+      <c r="J1045" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1045" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="L1045" s="8"/>
-      <c r="M1045" s="8"/>
+        <v>1558</v>
+      </c>
+      <c r="L1045" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1045" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="8"/>
@@ -30150,11 +29974,11 @@
       <c r="G1046" s="8"/>
       <c r="H1046" s="8"/>
       <c r="I1046" s="4" t="s">
-        <v>1661</v>
+        <v>1559</v>
       </c>
       <c r="J1046" s="8"/>
       <c r="K1046" s="4" t="s">
-        <v>1662</v>
+        <v>1560</v>
       </c>
       <c r="L1046" s="8"/>
       <c r="M1046" s="8"/>
@@ -30169,55 +29993,33 @@
       <c r="G1047" s="8"/>
       <c r="H1047" s="8"/>
       <c r="I1047" s="4" t="s">
-        <v>1663</v>
+        <v>1561</v>
       </c>
       <c r="J1047" s="8"/>
       <c r="K1047" s="4" t="s">
-        <v>1664</v>
+        <v>1562</v>
       </c>
       <c r="L1047" s="8"/>
       <c r="M1047" s="8"/>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="8" t="n">
-        <v>3042</v>
-      </c>
-      <c r="B1048" s="8" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C1048" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1048" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1048" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1048" s="8" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G1048" s="8" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H1048" s="8" t="s">
-        <v>1668</v>
-      </c>
+      <c r="A1048" s="8"/>
+      <c r="B1048" s="8"/>
+      <c r="C1048" s="8"/>
+      <c r="D1048" s="8"/>
+      <c r="E1048" s="8"/>
+      <c r="F1048" s="8"/>
+      <c r="G1048" s="8"/>
+      <c r="H1048" s="8"/>
       <c r="I1048" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1048" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>1563</v>
+      </c>
+      <c r="J1048" s="8"/>
       <c r="K1048" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L1048" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1048" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>1564</v>
+      </c>
+      <c r="L1048" s="8"/>
+      <c r="M1048" s="8"/>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="8"/>
@@ -30229,11 +30031,11 @@
       <c r="G1049" s="8"/>
       <c r="H1049" s="8"/>
       <c r="I1049" s="4" t="s">
-        <v>1657</v>
+        <v>1565</v>
       </c>
       <c r="J1049" s="8"/>
       <c r="K1049" s="4" t="s">
-        <v>1658</v>
+        <v>1566</v>
       </c>
       <c r="L1049" s="8"/>
       <c r="M1049" s="8"/>
@@ -30248,33 +30050,55 @@
       <c r="G1050" s="8"/>
       <c r="H1050" s="8"/>
       <c r="I1050" s="4" t="s">
-        <v>1659</v>
+        <v>164</v>
       </c>
       <c r="J1050" s="8"/>
       <c r="K1050" s="4" t="s">
-        <v>1660</v>
+        <v>165</v>
       </c>
       <c r="L1050" s="8"/>
       <c r="M1050" s="8"/>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="8"/>
-      <c r="B1051" s="8"/>
-      <c r="C1051" s="8"/>
-      <c r="D1051" s="8"/>
-      <c r="E1051" s="8"/>
-      <c r="F1051" s="8"/>
-      <c r="G1051" s="8"/>
-      <c r="H1051" s="8"/>
+      <c r="A1051" s="8" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B1051" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C1051" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1051" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1051" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1051" s="8" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G1051" s="8" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H1051" s="8" t="s">
+        <v>1602</v>
+      </c>
       <c r="I1051" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="J1051" s="8"/>
+        <v>1603</v>
+      </c>
+      <c r="J1051" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1051" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L1051" s="8"/>
-      <c r="M1051" s="8"/>
+        <v>1604</v>
+      </c>
+      <c r="L1051" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1051" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="8"/>
@@ -30286,74 +30110,74 @@
       <c r="G1052" s="8"/>
       <c r="H1052" s="8"/>
       <c r="I1052" s="4" t="s">
-        <v>1663</v>
+        <v>1605</v>
       </c>
       <c r="J1052" s="8"/>
       <c r="K1052" s="4" t="s">
-        <v>1664</v>
+        <v>1606</v>
       </c>
       <c r="L1052" s="8"/>
       <c r="M1052" s="8"/>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="8" t="n">
-        <v>3043</v>
-      </c>
-      <c r="B1053" s="8" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C1053" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1053" s="8" t="s">
+      <c r="A1053" s="8"/>
+      <c r="B1053" s="8"/>
+      <c r="C1053" s="8"/>
+      <c r="D1053" s="8"/>
+      <c r="E1053" s="8"/>
+      <c r="F1053" s="8"/>
+      <c r="G1053" s="8"/>
+      <c r="H1053" s="8"/>
+      <c r="I1053" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1053" s="8"/>
+      <c r="K1053" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1053" s="8"/>
+      <c r="M1053" s="8"/>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="8" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B1054" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1054" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1054" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1053" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1053" s="8" t="s">
-        <v>1670</v>
-      </c>
-      <c r="G1053" s="8" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H1053" s="8" t="s">
-        <v>1672</v>
-      </c>
-      <c r="I1053" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1053" s="8" t="s">
+      <c r="E1054" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1054" s="8" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G1054" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H1054" s="8" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I1054" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J1054" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K1053" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L1053" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1053" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="8"/>
-      <c r="B1054" s="8"/>
-      <c r="C1054" s="8"/>
-      <c r="D1054" s="8"/>
-      <c r="E1054" s="8"/>
-      <c r="F1054" s="8"/>
-      <c r="G1054" s="8"/>
-      <c r="H1054" s="8"/>
-      <c r="I1054" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J1054" s="8"/>
       <c r="K1054" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="L1054" s="8"/>
-      <c r="M1054" s="8"/>
+        <v>1604</v>
+      </c>
+      <c r="L1054" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1054" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="8"/>
@@ -30365,11 +30189,11 @@
       <c r="G1055" s="8"/>
       <c r="H1055" s="8"/>
       <c r="I1055" s="4" t="s">
-        <v>1659</v>
+        <v>1605</v>
       </c>
       <c r="J1055" s="8"/>
       <c r="K1055" s="4" t="s">
-        <v>1660</v>
+        <v>1606</v>
       </c>
       <c r="L1055" s="8"/>
       <c r="M1055" s="8"/>
@@ -30384,93 +30208,115 @@
       <c r="G1056" s="8"/>
       <c r="H1056" s="8"/>
       <c r="I1056" s="4" t="s">
-        <v>1661</v>
+        <v>164</v>
       </c>
       <c r="J1056" s="8"/>
       <c r="K1056" s="4" t="s">
-        <v>1662</v>
+        <v>165</v>
       </c>
       <c r="L1056" s="8"/>
       <c r="M1056" s="8"/>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="8"/>
-      <c r="B1057" s="8"/>
-      <c r="C1057" s="8"/>
-      <c r="D1057" s="8"/>
-      <c r="E1057" s="8"/>
-      <c r="F1057" s="8"/>
-      <c r="G1057" s="8"/>
-      <c r="H1057" s="8"/>
+      <c r="A1057" s="8" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B1057" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1057" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1057" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1057" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1057" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G1057" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H1057" s="8" t="s">
+        <v>1614</v>
+      </c>
       <c r="I1057" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J1057" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="J1057" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1057" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="L1057" s="8"/>
-      <c r="M1057" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1057" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1057" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="8" t="n">
-        <v>3044</v>
-      </c>
-      <c r="B1058" s="8" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C1058" s="8" t="s">
+      <c r="A1058" s="8"/>
+      <c r="B1058" s="8"/>
+      <c r="C1058" s="8"/>
+      <c r="D1058" s="8"/>
+      <c r="E1058" s="8"/>
+      <c r="F1058" s="8"/>
+      <c r="G1058" s="8"/>
+      <c r="H1058" s="8"/>
+      <c r="I1058" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1058" s="8"/>
+      <c r="K1058" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L1058" s="8"/>
+      <c r="M1058" s="8"/>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="8" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B1059" s="8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1059" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D1058" s="8" t="s">
+      <c r="D1059" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1059" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1059" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G1059" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H1059" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I1059" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1059" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1058" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1058" s="8" t="s">
-        <v>1674</v>
-      </c>
-      <c r="G1058" s="8" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H1058" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I1058" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1058" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1058" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L1058" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1058" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="8"/>
-      <c r="B1059" s="8"/>
-      <c r="C1059" s="8"/>
-      <c r="D1059" s="8"/>
-      <c r="E1059" s="8"/>
-      <c r="F1059" s="8"/>
-      <c r="G1059" s="8"/>
-      <c r="H1059" s="8"/>
-      <c r="I1059" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J1059" s="8"/>
       <c r="K1059" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="L1059" s="8"/>
-      <c r="M1059" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1059" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1059" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="8"/>
@@ -30482,33 +30328,55 @@
       <c r="G1060" s="8"/>
       <c r="H1060" s="8"/>
       <c r="I1060" s="4" t="s">
-        <v>1659</v>
+        <v>1617</v>
       </c>
       <c r="J1060" s="8"/>
       <c r="K1060" s="4" t="s">
-        <v>1660</v>
+        <v>1618</v>
       </c>
       <c r="L1060" s="8"/>
       <c r="M1060" s="8"/>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="8"/>
-      <c r="B1061" s="8"/>
-      <c r="C1061" s="8"/>
-      <c r="D1061" s="8"/>
-      <c r="E1061" s="8"/>
-      <c r="F1061" s="8"/>
-      <c r="G1061" s="8"/>
-      <c r="H1061" s="8"/>
+      <c r="A1061" s="8" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B1061" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1061" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1061" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1061" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1061" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G1061" s="8" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H1061" s="8" t="s">
+        <v>1626</v>
+      </c>
       <c r="I1061" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="J1061" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="J1061" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1061" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L1061" s="8"/>
-      <c r="M1061" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1061" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1061" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="8"/>
@@ -30520,130 +30388,108 @@
       <c r="G1062" s="8"/>
       <c r="H1062" s="8"/>
       <c r="I1062" s="4" t="s">
-        <v>1663</v>
+        <v>1617</v>
       </c>
       <c r="J1062" s="8"/>
       <c r="K1062" s="4" t="s">
-        <v>1664</v>
+        <v>1618</v>
       </c>
       <c r="L1062" s="8"/>
       <c r="M1062" s="8"/>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="4" t="n">
-        <v>3045</v>
-      </c>
-      <c r="B1063" s="4" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1063" s="4" t="s">
+      <c r="A1063" s="8" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B1063" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1063" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D1063" s="4" t="s">
+      <c r="D1063" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1063" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1063" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G1063" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H1063" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I1063" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1063" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1063" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1063" s="4" t="s">
-        <v>1678</v>
-      </c>
-      <c r="G1063" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="H1063" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I1063" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1063" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="K1063" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1063" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1063" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L1063" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1063" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="4" t="n">
-        <v>3046</v>
-      </c>
-      <c r="B1064" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1064" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1064" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1064" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1064" s="4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="G1064" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H1064" s="4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I1064" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J1064" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1064" s="8"/>
+      <c r="B1064" s="8"/>
+      <c r="C1064" s="8"/>
+      <c r="D1064" s="8"/>
+      <c r="E1064" s="8"/>
+      <c r="F1064" s="8"/>
+      <c r="G1064" s="8"/>
+      <c r="H1064" s="8"/>
+      <c r="I1064" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1064" s="8"/>
       <c r="K1064" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1064" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1064" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>1618</v>
+      </c>
+      <c r="L1064" s="8"/>
+      <c r="M1064" s="8"/>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="8" t="n">
-        <v>3047</v>
+        <v>3036</v>
       </c>
       <c r="B1065" s="8" t="s">
-        <v>1685</v>
+        <v>1631</v>
       </c>
       <c r="C1065" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D1065" s="8" t="s">
-        <v>63</v>
+      <c r="D1065" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E1065" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1065" s="8" t="s">
-        <v>1686</v>
+        <v>1632</v>
       </c>
       <c r="G1065" s="8" t="s">
-        <v>1687</v>
+        <v>1633</v>
       </c>
       <c r="H1065" s="8" t="s">
-        <v>1688</v>
+        <v>1634</v>
       </c>
       <c r="I1065" s="4" t="s">
-        <v>1655</v>
+        <v>1615</v>
       </c>
       <c r="J1065" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1065" s="4" t="s">
-        <v>1656</v>
+        <v>1616</v>
       </c>
       <c r="L1065" s="8" t="s">
         <v>64</v>
@@ -30662,33 +30508,55 @@
       <c r="G1066" s="8"/>
       <c r="H1066" s="8"/>
       <c r="I1066" s="4" t="s">
-        <v>1657</v>
+        <v>1617</v>
       </c>
       <c r="J1066" s="8"/>
       <c r="K1066" s="4" t="s">
-        <v>1658</v>
+        <v>1618</v>
       </c>
       <c r="L1066" s="8"/>
       <c r="M1066" s="8"/>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="8"/>
-      <c r="B1067" s="8"/>
-      <c r="C1067" s="8"/>
-      <c r="D1067" s="8"/>
-      <c r="E1067" s="8"/>
-      <c r="F1067" s="8"/>
-      <c r="G1067" s="8"/>
-      <c r="H1067" s="8"/>
+      <c r="A1067" s="8" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B1067" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1067" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1067" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="E1067" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1067" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G1067" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H1067" s="8" t="s">
+        <v>1638</v>
+      </c>
       <c r="I1067" s="4" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J1067" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="J1067" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1067" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="L1067" s="8"/>
-      <c r="M1067" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1067" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1067" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="8"/>
@@ -30700,93 +30568,115 @@
       <c r="G1068" s="8"/>
       <c r="H1068" s="8"/>
       <c r="I1068" s="4" t="s">
-        <v>1661</v>
+        <v>1617</v>
       </c>
       <c r="J1068" s="8"/>
       <c r="K1068" s="4" t="s">
-        <v>1662</v>
+        <v>1618</v>
       </c>
       <c r="L1068" s="8"/>
       <c r="M1068" s="8"/>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="8"/>
-      <c r="B1069" s="8"/>
-      <c r="C1069" s="8"/>
-      <c r="D1069" s="8"/>
-      <c r="E1069" s="8"/>
-      <c r="F1069" s="8"/>
-      <c r="G1069" s="8"/>
-      <c r="H1069" s="8"/>
+      <c r="A1069" s="8" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B1069" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C1069" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1069" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E1069" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1069" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G1069" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H1069" s="8" t="s">
+        <v>1642</v>
+      </c>
       <c r="I1069" s="4" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J1069" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="J1069" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1069" s="4" t="s">
-        <v>1664</v>
-      </c>
-      <c r="L1069" s="8"/>
-      <c r="M1069" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1069" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1069" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="8" t="n">
-        <v>3048</v>
-      </c>
-      <c r="B1070" s="8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C1070" s="8" t="s">
+      <c r="A1070" s="8"/>
+      <c r="B1070" s="8"/>
+      <c r="C1070" s="8"/>
+      <c r="D1070" s="8"/>
+      <c r="E1070" s="8"/>
+      <c r="F1070" s="8"/>
+      <c r="G1070" s="8"/>
+      <c r="H1070" s="8"/>
+      <c r="I1070" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1070" s="8"/>
+      <c r="K1070" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L1070" s="8"/>
+      <c r="M1070" s="8"/>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="8" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B1071" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1071" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D1070" s="8" t="s">
+      <c r="D1071" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1071" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1071" s="8" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G1071" s="8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H1071" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1071" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1071" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1070" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1070" s="8" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G1070" s="8" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H1070" s="8" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I1070" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J1070" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1070" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="L1070" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1070" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="8"/>
-      <c r="B1071" s="8"/>
-      <c r="C1071" s="8"/>
-      <c r="D1071" s="8"/>
-      <c r="E1071" s="8"/>
-      <c r="F1071" s="8"/>
-      <c r="G1071" s="8"/>
-      <c r="H1071" s="8"/>
-      <c r="I1071" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="J1071" s="8"/>
       <c r="K1071" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="L1071" s="8"/>
-      <c r="M1071" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1071" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1071" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="8"/>
@@ -30798,33 +30688,55 @@
       <c r="G1072" s="8"/>
       <c r="H1072" s="8"/>
       <c r="I1072" s="4" t="s">
-        <v>1659</v>
+        <v>1617</v>
       </c>
       <c r="J1072" s="8"/>
       <c r="K1072" s="4" t="s">
-        <v>1660</v>
+        <v>1618</v>
       </c>
       <c r="L1072" s="8"/>
       <c r="M1072" s="8"/>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="8"/>
-      <c r="B1073" s="8"/>
-      <c r="C1073" s="8"/>
-      <c r="D1073" s="8"/>
-      <c r="E1073" s="8"/>
-      <c r="F1073" s="8"/>
-      <c r="G1073" s="8"/>
-      <c r="H1073" s="8"/>
+      <c r="A1073" s="8" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B1073" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1073" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1073" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1073" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1073" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G1073" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H1073" s="8" t="s">
+        <v>1650</v>
+      </c>
       <c r="I1073" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="J1073" s="8"/>
+        <v>1615</v>
+      </c>
+      <c r="J1073" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="K1073" s="4" t="s">
-        <v>1662</v>
-      </c>
-      <c r="L1073" s="8"/>
-      <c r="M1073" s="8"/>
+        <v>1616</v>
+      </c>
+      <c r="L1073" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1073" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="8"/>
@@ -30836,48 +30748,48 @@
       <c r="G1074" s="8"/>
       <c r="H1074" s="8"/>
       <c r="I1074" s="4" t="s">
-        <v>1663</v>
+        <v>1617</v>
       </c>
       <c r="J1074" s="8"/>
       <c r="K1074" s="4" t="s">
-        <v>1664</v>
+        <v>1618</v>
       </c>
       <c r="L1074" s="8"/>
       <c r="M1074" s="8"/>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="8" t="n">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="B1075" s="8" t="s">
-        <v>1693</v>
+        <v>1651</v>
       </c>
       <c r="C1075" s="8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D1075" s="8" t="s">
-        <v>63</v>
+        <v>266</v>
+      </c>
+      <c r="D1075" s="9" t="s">
+        <v>707</v>
       </c>
       <c r="E1075" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F1075" s="8" t="s">
-        <v>1694</v>
+        <v>1652</v>
       </c>
       <c r="G1075" s="8" t="s">
-        <v>1694</v>
+        <v>1653</v>
       </c>
       <c r="H1075" s="8" t="s">
-        <v>1695</v>
+        <v>1654</v>
       </c>
       <c r="I1075" s="4" t="s">
-        <v>1696</v>
+        <v>1615</v>
       </c>
       <c r="J1075" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1075" s="4" t="s">
-        <v>1697</v>
+        <v>1616</v>
       </c>
       <c r="L1075" s="8" t="s">
         <v>64</v>
@@ -30896,166 +30808,308 @@
       <c r="G1076" s="8"/>
       <c r="H1076" s="8"/>
       <c r="I1076" s="4" t="s">
-        <v>1698</v>
+        <v>1617</v>
       </c>
       <c r="J1076" s="8"/>
       <c r="K1076" s="4" t="s">
-        <v>1699</v>
+        <v>1618</v>
       </c>
       <c r="L1076" s="8"/>
       <c r="M1076" s="8"/>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="4" t="n">
-        <v>3050</v>
-      </c>
-      <c r="B1077" s="4" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C1077" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1077" s="4" t="s">
+      <c r="A1077" s="8" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B1077" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1077" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1077" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E1077" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1077" s="8" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G1077" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H1077" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I1077" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1077" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1077" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1077" s="4" t="s">
-        <v>1701</v>
-      </c>
-      <c r="G1077" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H1077" s="4" t="s">
-        <v>1703</v>
-      </c>
-      <c r="I1077" s="7" t="s">
+      <c r="K1077" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L1077" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1077" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="8"/>
+      <c r="B1078" s="8"/>
+      <c r="C1078" s="8"/>
+      <c r="D1078" s="8"/>
+      <c r="E1078" s="8"/>
+      <c r="F1078" s="8"/>
+      <c r="G1078" s="8"/>
+      <c r="H1078" s="8"/>
+      <c r="I1078" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1078" s="8"/>
+      <c r="K1078" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L1078" s="8"/>
+      <c r="M1078" s="8"/>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="8" t="n">
+        <v>3043</v>
+      </c>
+      <c r="B1079" s="8" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1079" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1079" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1079" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1079" s="8" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G1079" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H1079" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I1079" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J1079" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1079" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L1079" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1079" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="8"/>
+      <c r="B1080" s="8"/>
+      <c r="C1080" s="8"/>
+      <c r="D1080" s="8"/>
+      <c r="E1080" s="8"/>
+      <c r="F1080" s="8"/>
+      <c r="G1080" s="8"/>
+      <c r="H1080" s="8"/>
+      <c r="I1080" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J1080" s="8"/>
+      <c r="K1080" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L1080" s="8"/>
+      <c r="M1080" s="8"/>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="4" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1081" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1081" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G1081" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H1081" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1081" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="J1077" s="4" t="s">
+      <c r="J1081" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1077" s="4" t="s">
+      <c r="K1081" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L1077" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1077" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="4" t="n">
-        <v>3051</v>
-      </c>
-      <c r="B1078" s="4" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C1078" s="4" t="s">
+      <c r="L1081" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1081" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="4" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1082" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D1078" s="4" t="s">
+      <c r="D1082" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1078" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1078" s="4" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G1078" s="4" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H1078" s="4" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I1078" s="7" t="s">
+      <c r="E1082" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1082" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G1082" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H1082" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I1082" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="J1078" s="4" t="s">
+      <c r="J1082" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1078" s="4" t="s">
+      <c r="K1082" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L1078" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1078" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1079" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="1"/>
-    </row>
-    <row r="1080" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="2" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1081" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="1"/>
-    </row>
-    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="4" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1083" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="1"/>
+      <c r="L1082" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1082" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="4" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1083" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1083" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G1083" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1083" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I1083" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1083" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1083" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1083" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1083" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1084" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1084" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1084" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1084" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1084" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1084" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1084" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1084" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1084" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1084" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1084" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1084" s="6" t="s">
-        <v>60</v>
+      <c r="A1084" s="4" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1084" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1084" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G1084" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H1084" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I1084" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1084" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1084" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1084" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1084" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="8" t="n">
-        <v>4001</v>
+        <v>3048</v>
       </c>
       <c r="B1085" s="8" t="s">
-        <v>1710</v>
+        <v>1679</v>
       </c>
       <c r="C1085" s="8" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="D1085" s="8" t="s">
         <v>63</v>
@@ -31064,22 +31118,22 @@
         <v>64</v>
       </c>
       <c r="F1085" s="8" t="s">
-        <v>1711</v>
+        <v>1680</v>
       </c>
       <c r="G1085" s="8" t="s">
-        <v>1711</v>
+        <v>1681</v>
       </c>
       <c r="H1085" s="8" t="s">
-        <v>1712</v>
+        <v>1682</v>
       </c>
       <c r="I1085" s="4" t="s">
-        <v>184</v>
+        <v>1683</v>
       </c>
       <c r="J1085" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K1085" s="4" t="s">
-        <v>185</v>
+        <v>1684</v>
       </c>
       <c r="L1085" s="8" t="s">
         <v>64</v>
@@ -31098,188 +31152,1174 @@
       <c r="G1086" s="8"/>
       <c r="H1086" s="8"/>
       <c r="I1086" s="4" t="s">
-        <v>186</v>
+        <v>1685</v>
       </c>
       <c r="J1086" s="8"/>
       <c r="K1086" s="4" t="s">
-        <v>187</v>
+        <v>1686</v>
       </c>
       <c r="L1086" s="8"/>
       <c r="M1086" s="8"/>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1087" s="4"/>
-    </row>
-    <row r="1088" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="1"/>
+      <c r="A1087" s="8"/>
+      <c r="B1087" s="8"/>
+      <c r="C1087" s="8"/>
+      <c r="D1087" s="8"/>
+      <c r="E1087" s="8"/>
+      <c r="F1087" s="8"/>
+      <c r="G1087" s="8"/>
+      <c r="H1087" s="8"/>
+      <c r="I1087" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1087" s="8"/>
+      <c r="K1087" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1087" s="8"/>
+      <c r="M1087" s="8"/>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="8"/>
+      <c r="B1088" s="8"/>
+      <c r="C1088" s="8"/>
+      <c r="D1088" s="8"/>
+      <c r="E1088" s="8"/>
+      <c r="F1088" s="8"/>
+      <c r="G1088" s="8"/>
+      <c r="H1088" s="8"/>
+      <c r="I1088" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1088" s="8"/>
+      <c r="K1088" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1088" s="8"/>
+      <c r="M1088" s="8"/>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="4" t="s">
+      <c r="A1089" s="8"/>
+      <c r="B1089" s="8"/>
+      <c r="C1089" s="8"/>
+      <c r="D1089" s="8"/>
+      <c r="E1089" s="8"/>
+      <c r="F1089" s="8"/>
+      <c r="G1089" s="8"/>
+      <c r="H1089" s="8"/>
+      <c r="I1089" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1089" s="8"/>
+      <c r="K1089" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1089" s="8"/>
+      <c r="M1089" s="8"/>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="8" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B1090" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1090" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1090" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1090" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1090" s="8" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G1090" s="8" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H1090" s="8" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I1090" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1090" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1090" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1090" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1090" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="8"/>
+      <c r="B1091" s="8"/>
+      <c r="C1091" s="8"/>
+      <c r="D1091" s="8"/>
+      <c r="E1091" s="8"/>
+      <c r="F1091" s="8"/>
+      <c r="G1091" s="8"/>
+      <c r="H1091" s="8"/>
+      <c r="I1091" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1091" s="8"/>
+      <c r="K1091" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L1091" s="8"/>
+      <c r="M1091" s="8"/>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="8"/>
+      <c r="B1092" s="8"/>
+      <c r="C1092" s="8"/>
+      <c r="D1092" s="8"/>
+      <c r="E1092" s="8"/>
+      <c r="F1092" s="8"/>
+      <c r="G1092" s="8"/>
+      <c r="H1092" s="8"/>
+      <c r="I1092" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1092" s="8"/>
+      <c r="K1092" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1092" s="8"/>
+      <c r="M1092" s="8"/>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="8"/>
+      <c r="B1093" s="8"/>
+      <c r="C1093" s="8"/>
+      <c r="D1093" s="8"/>
+      <c r="E1093" s="8"/>
+      <c r="F1093" s="8"/>
+      <c r="G1093" s="8"/>
+      <c r="H1093" s="8"/>
+      <c r="I1093" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1093" s="8"/>
+      <c r="K1093" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1093" s="8"/>
+      <c r="M1093" s="8"/>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="8"/>
+      <c r="B1094" s="8"/>
+      <c r="C1094" s="8"/>
+      <c r="D1094" s="8"/>
+      <c r="E1094" s="8"/>
+      <c r="F1094" s="8"/>
+      <c r="G1094" s="8"/>
+      <c r="H1094" s="8"/>
+      <c r="I1094" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1094" s="8"/>
+      <c r="K1094" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1094" s="8"/>
+      <c r="M1094" s="8"/>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B1095" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1095" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1095" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1095" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1095" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G1095" s="8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H1095" s="8" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I1095" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1095" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1095" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1095" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1095" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="8"/>
+      <c r="B1096" s="8"/>
+      <c r="C1096" s="8"/>
+      <c r="D1096" s="8"/>
+      <c r="E1096" s="8"/>
+      <c r="F1096" s="8"/>
+      <c r="G1096" s="8"/>
+      <c r="H1096" s="8"/>
+      <c r="I1096" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1096" s="8"/>
+      <c r="K1096" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L1096" s="8"/>
+      <c r="M1096" s="8"/>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="8"/>
+      <c r="B1097" s="8"/>
+      <c r="C1097" s="8"/>
+      <c r="D1097" s="8"/>
+      <c r="E1097" s="8"/>
+      <c r="F1097" s="8"/>
+      <c r="G1097" s="8"/>
+      <c r="H1097" s="8"/>
+      <c r="I1097" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1097" s="8"/>
+      <c r="K1097" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1097" s="8"/>
+      <c r="M1097" s="8"/>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="8"/>
+      <c r="B1098" s="8"/>
+      <c r="C1098" s="8"/>
+      <c r="D1098" s="8"/>
+      <c r="E1098" s="8"/>
+      <c r="F1098" s="8"/>
+      <c r="G1098" s="8"/>
+      <c r="H1098" s="8"/>
+      <c r="I1098" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1098" s="8"/>
+      <c r="K1098" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1098" s="8"/>
+      <c r="M1098" s="8"/>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="8"/>
+      <c r="B1099" s="8"/>
+      <c r="C1099" s="8"/>
+      <c r="D1099" s="8"/>
+      <c r="E1099" s="8"/>
+      <c r="F1099" s="8"/>
+      <c r="G1099" s="8"/>
+      <c r="H1099" s="8"/>
+      <c r="I1099" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1099" s="8"/>
+      <c r="K1099" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1099" s="8"/>
+      <c r="M1099" s="8"/>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="8" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B1100" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1100" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1100" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1100" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1100" s="8" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G1100" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H1100" s="8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I1100" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1100" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1100" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1100" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1100" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="8"/>
+      <c r="B1101" s="8"/>
+      <c r="C1101" s="8"/>
+      <c r="D1101" s="8"/>
+      <c r="E1101" s="8"/>
+      <c r="F1101" s="8"/>
+      <c r="G1101" s="8"/>
+      <c r="H1101" s="8"/>
+      <c r="I1101" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1101" s="8"/>
+      <c r="K1101" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L1101" s="8"/>
+      <c r="M1101" s="8"/>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="8"/>
+      <c r="B1102" s="8"/>
+      <c r="C1102" s="8"/>
+      <c r="D1102" s="8"/>
+      <c r="E1102" s="8"/>
+      <c r="F1102" s="8"/>
+      <c r="G1102" s="8"/>
+      <c r="H1102" s="8"/>
+      <c r="I1102" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1102" s="8"/>
+      <c r="K1102" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1102" s="8"/>
+      <c r="M1102" s="8"/>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="8"/>
+      <c r="B1103" s="8"/>
+      <c r="C1103" s="8"/>
+      <c r="D1103" s="8"/>
+      <c r="E1103" s="8"/>
+      <c r="F1103" s="8"/>
+      <c r="G1103" s="8"/>
+      <c r="H1103" s="8"/>
+      <c r="I1103" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1103" s="8"/>
+      <c r="K1103" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1103" s="8"/>
+      <c r="M1103" s="8"/>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="8"/>
+      <c r="B1104" s="8"/>
+      <c r="C1104" s="8"/>
+      <c r="D1104" s="8"/>
+      <c r="E1104" s="8"/>
+      <c r="F1104" s="8"/>
+      <c r="G1104" s="8"/>
+      <c r="H1104" s="8"/>
+      <c r="I1104" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1104" s="8"/>
+      <c r="K1104" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1104" s="8"/>
+      <c r="M1104" s="8"/>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="4" t="n">
+        <v>3052</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1105" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1105" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G1105" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H1105" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I1105" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1105" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1105" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="4" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1106" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G1106" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H1106" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I1106" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1106" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="8" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B1107" s="8" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="1090" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="1"/>
-    </row>
-    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1092" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="1"/>
-    </row>
-    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1094" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="1"/>
-    </row>
-    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1096" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="1"/>
-    </row>
-    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1097" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1098" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="1"/>
-    </row>
-    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1100" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="1"/>
-    </row>
-    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="4" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1102" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="1"/>
-    </row>
-    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="4" t="s">
+      <c r="C1107" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1107" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1107" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1107" s="8" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="1104" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="1"/>
-    </row>
-    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1106" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="1"/>
-    </row>
-    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1107" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1108" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1108" s="1"/>
+      <c r="G1107" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1107" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I1107" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1107" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1107" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1107" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1107" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="8"/>
+      <c r="B1108" s="8"/>
+      <c r="C1108" s="8"/>
+      <c r="D1108" s="8"/>
+      <c r="E1108" s="8"/>
+      <c r="F1108" s="8"/>
+      <c r="G1108" s="8"/>
+      <c r="H1108" s="8"/>
+      <c r="I1108" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1108" s="8"/>
+      <c r="K1108" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L1108" s="8"/>
+      <c r="M1108" s="8"/>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1110" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="1"/>
+      <c r="A1109" s="8"/>
+      <c r="B1109" s="8"/>
+      <c r="C1109" s="8"/>
+      <c r="D1109" s="8"/>
+      <c r="E1109" s="8"/>
+      <c r="F1109" s="8"/>
+      <c r="G1109" s="8"/>
+      <c r="H1109" s="8"/>
+      <c r="I1109" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1109" s="8"/>
+      <c r="K1109" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1109" s="8"/>
+      <c r="M1109" s="8"/>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="8"/>
+      <c r="B1110" s="8"/>
+      <c r="C1110" s="8"/>
+      <c r="D1110" s="8"/>
+      <c r="E1110" s="8"/>
+      <c r="F1110" s="8"/>
+      <c r="G1110" s="8"/>
+      <c r="H1110" s="8"/>
+      <c r="I1110" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1110" s="8"/>
+      <c r="K1110" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1110" s="8"/>
+      <c r="M1110" s="8"/>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1112" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="1"/>
+      <c r="A1111" s="8"/>
+      <c r="B1111" s="8"/>
+      <c r="C1111" s="8"/>
+      <c r="D1111" s="8"/>
+      <c r="E1111" s="8"/>
+      <c r="F1111" s="8"/>
+      <c r="G1111" s="8"/>
+      <c r="H1111" s="8"/>
+      <c r="I1111" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1111" s="8"/>
+      <c r="K1111" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1111" s="8"/>
+      <c r="M1111" s="8"/>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="8" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B1112" s="8" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1112" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1112" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1112" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1112" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G1112" s="8" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H1112" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I1112" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1112" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1112" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L1112" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1112" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="4" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1114" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="1"/>
+      <c r="A1113" s="8"/>
+      <c r="B1113" s="8"/>
+      <c r="C1113" s="8"/>
+      <c r="D1113" s="8"/>
+      <c r="E1113" s="8"/>
+      <c r="F1113" s="8"/>
+      <c r="G1113" s="8"/>
+      <c r="H1113" s="8"/>
+      <c r="I1113" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1113" s="8"/>
+      <c r="K1113" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L1113" s="8"/>
+      <c r="M1113" s="8"/>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="8"/>
+      <c r="B1114" s="8"/>
+      <c r="C1114" s="8"/>
+      <c r="D1114" s="8"/>
+      <c r="E1114" s="8"/>
+      <c r="F1114" s="8"/>
+      <c r="G1114" s="8"/>
+      <c r="H1114" s="8"/>
+      <c r="I1114" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J1114" s="8"/>
+      <c r="K1114" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L1114" s="8"/>
+      <c r="M1114" s="8"/>
     </row>
     <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="4" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1116" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="1"/>
+      <c r="A1115" s="8"/>
+      <c r="B1115" s="8"/>
+      <c r="C1115" s="8"/>
+      <c r="D1115" s="8"/>
+      <c r="E1115" s="8"/>
+      <c r="F1115" s="8"/>
+      <c r="G1115" s="8"/>
+      <c r="H1115" s="8"/>
+      <c r="I1115" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J1115" s="8"/>
+      <c r="K1115" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L1115" s="8"/>
+      <c r="M1115" s="8"/>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="8"/>
+      <c r="B1116" s="8"/>
+      <c r="C1116" s="8"/>
+      <c r="D1116" s="8"/>
+      <c r="E1116" s="8"/>
+      <c r="F1116" s="8"/>
+      <c r="G1116" s="8"/>
+      <c r="H1116" s="8"/>
+      <c r="I1116" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1116" s="8"/>
+      <c r="K1116" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1116" s="8"/>
+      <c r="M1116" s="8"/>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1117" s="4" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1118" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="1"/>
+      <c r="A1117" s="8" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B1117" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1117" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D1117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1117" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1117" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G1117" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H1117" s="8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I1117" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J1117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1117" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L1117" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1117" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="8"/>
+      <c r="B1118" s="8"/>
+      <c r="C1118" s="8"/>
+      <c r="D1118" s="8"/>
+      <c r="E1118" s="8"/>
+      <c r="F1118" s="8"/>
+      <c r="G1118" s="8"/>
+      <c r="H1118" s="8"/>
+      <c r="I1118" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J1118" s="8"/>
+      <c r="K1118" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L1118" s="8"/>
+      <c r="M1118" s="8"/>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1120" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="1"/>
-    </row>
-    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1121" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1122" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="1"/>
-    </row>
-    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1123" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1124" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1124" s="1"/>
-    </row>
-    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1126" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1126" s="1"/>
+      <c r="A1119" s="4" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1119" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G1119" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1119" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I1119" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1119" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="4" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1120" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G1120" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H1120" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I1120" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J1120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1120" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="1"/>
+    </row>
+    <row r="1122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="2" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="1"/>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="1"/>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1126" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1126" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1126" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1126" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1126" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1126" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1126" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1126" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1126" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1126" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1127" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1128" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="1"/>
+      <c r="A1127" s="8" t="n">
+        <v>4001</v>
+      </c>
+      <c r="B1127" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1127" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1127" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1127" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1127" s="8" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G1127" s="8" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H1127" s="8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I1127" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1127" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1127" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1127" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1127" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="8"/>
+      <c r="B1128" s="8"/>
+      <c r="C1128" s="8"/>
+      <c r="D1128" s="8"/>
+      <c r="E1128" s="8"/>
+      <c r="F1128" s="8"/>
+      <c r="G1128" s="8"/>
+      <c r="H1128" s="8"/>
+      <c r="I1128" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1128" s="8"/>
+      <c r="K1128" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1128" s="8"/>
+      <c r="M1128" s="8"/>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1129" s="4" t="s">
-        <v>1717</v>
+      <c r="A1129" s="4"/>
+    </row>
+    <row r="1130" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="1"/>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="1"/>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="1"/>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="1"/>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="1"/>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="1"/>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="1"/>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="1"/>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="1"/>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="1"/>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="1"/>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="1"/>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="1"/>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="4" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="1"/>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="4" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="1"/>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="1"/>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="1"/>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="1"/>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="1"/>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="1"/>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="1"/>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="4" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1814">
+  <mergeCells count="1889">
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="C107:C109"/>
@@ -32852,226 +33892,202 @@
     <mergeCell ref="J1003:J1008"/>
     <mergeCell ref="L1003:L1008"/>
     <mergeCell ref="M1003:M1008"/>
-    <mergeCell ref="A1009:A1011"/>
-    <mergeCell ref="B1009:B1011"/>
-    <mergeCell ref="C1009:C1011"/>
-    <mergeCell ref="D1009:D1011"/>
-    <mergeCell ref="E1009:E1011"/>
-    <mergeCell ref="F1009:F1011"/>
-    <mergeCell ref="G1009:G1011"/>
-    <mergeCell ref="H1009:H1011"/>
-    <mergeCell ref="J1009:J1011"/>
-    <mergeCell ref="L1009:L1011"/>
-    <mergeCell ref="M1009:M1011"/>
-    <mergeCell ref="A1012:A1014"/>
-    <mergeCell ref="B1012:B1014"/>
-    <mergeCell ref="C1012:C1014"/>
-    <mergeCell ref="D1012:D1014"/>
-    <mergeCell ref="E1012:E1014"/>
-    <mergeCell ref="F1012:F1014"/>
-    <mergeCell ref="G1012:G1014"/>
-    <mergeCell ref="H1012:H1014"/>
-    <mergeCell ref="J1012:J1014"/>
-    <mergeCell ref="L1012:L1014"/>
-    <mergeCell ref="M1012:M1014"/>
-    <mergeCell ref="A1015:A1016"/>
-    <mergeCell ref="B1015:B1016"/>
-    <mergeCell ref="C1015:C1016"/>
-    <mergeCell ref="D1015:D1016"/>
-    <mergeCell ref="E1015:E1016"/>
-    <mergeCell ref="F1015:F1016"/>
-    <mergeCell ref="G1015:G1016"/>
-    <mergeCell ref="H1015:H1016"/>
-    <mergeCell ref="J1015:J1016"/>
-    <mergeCell ref="L1015:L1016"/>
-    <mergeCell ref="M1015:M1016"/>
-    <mergeCell ref="A1017:A1018"/>
-    <mergeCell ref="B1017:B1018"/>
-    <mergeCell ref="C1017:C1018"/>
-    <mergeCell ref="D1017:D1018"/>
-    <mergeCell ref="E1017:E1018"/>
-    <mergeCell ref="F1017:F1018"/>
-    <mergeCell ref="G1017:G1018"/>
-    <mergeCell ref="H1017:H1018"/>
-    <mergeCell ref="J1017:J1018"/>
-    <mergeCell ref="L1017:L1018"/>
-    <mergeCell ref="M1017:M1018"/>
-    <mergeCell ref="A1019:A1020"/>
-    <mergeCell ref="B1019:B1020"/>
-    <mergeCell ref="C1019:C1020"/>
-    <mergeCell ref="D1019:D1020"/>
-    <mergeCell ref="E1019:E1020"/>
-    <mergeCell ref="F1019:F1020"/>
-    <mergeCell ref="G1019:G1020"/>
-    <mergeCell ref="H1019:H1020"/>
-    <mergeCell ref="J1019:J1020"/>
-    <mergeCell ref="L1019:L1020"/>
-    <mergeCell ref="M1019:M1020"/>
-    <mergeCell ref="A1021:A1022"/>
-    <mergeCell ref="B1021:B1022"/>
-    <mergeCell ref="C1021:C1022"/>
-    <mergeCell ref="D1021:D1022"/>
-    <mergeCell ref="E1021:E1022"/>
-    <mergeCell ref="F1021:F1022"/>
-    <mergeCell ref="G1021:G1022"/>
-    <mergeCell ref="H1021:H1022"/>
-    <mergeCell ref="J1021:J1022"/>
-    <mergeCell ref="L1021:L1022"/>
-    <mergeCell ref="M1021:M1022"/>
-    <mergeCell ref="A1023:A1024"/>
-    <mergeCell ref="B1023:B1024"/>
-    <mergeCell ref="C1023:C1024"/>
-    <mergeCell ref="D1023:D1024"/>
-    <mergeCell ref="E1023:E1024"/>
-    <mergeCell ref="F1023:F1024"/>
-    <mergeCell ref="G1023:G1024"/>
-    <mergeCell ref="H1023:H1024"/>
-    <mergeCell ref="J1023:J1024"/>
-    <mergeCell ref="L1023:L1024"/>
-    <mergeCell ref="M1023:M1024"/>
-    <mergeCell ref="A1025:A1026"/>
-    <mergeCell ref="B1025:B1026"/>
-    <mergeCell ref="C1025:C1026"/>
-    <mergeCell ref="D1025:D1026"/>
-    <mergeCell ref="E1025:E1026"/>
-    <mergeCell ref="F1025:F1026"/>
-    <mergeCell ref="G1025:G1026"/>
-    <mergeCell ref="H1025:H1026"/>
-    <mergeCell ref="J1025:J1026"/>
-    <mergeCell ref="L1025:L1026"/>
-    <mergeCell ref="M1025:M1026"/>
-    <mergeCell ref="A1027:A1028"/>
-    <mergeCell ref="B1027:B1028"/>
-    <mergeCell ref="C1027:C1028"/>
-    <mergeCell ref="D1027:D1028"/>
-    <mergeCell ref="E1027:E1028"/>
-    <mergeCell ref="F1027:F1028"/>
-    <mergeCell ref="G1027:G1028"/>
-    <mergeCell ref="H1027:H1028"/>
-    <mergeCell ref="J1027:J1028"/>
-    <mergeCell ref="L1027:L1028"/>
-    <mergeCell ref="M1027:M1028"/>
-    <mergeCell ref="A1029:A1030"/>
-    <mergeCell ref="B1029:B1030"/>
-    <mergeCell ref="C1029:C1030"/>
-    <mergeCell ref="D1029:D1030"/>
-    <mergeCell ref="E1029:E1030"/>
-    <mergeCell ref="F1029:F1030"/>
-    <mergeCell ref="G1029:G1030"/>
-    <mergeCell ref="H1029:H1030"/>
-    <mergeCell ref="J1029:J1030"/>
-    <mergeCell ref="L1029:L1030"/>
-    <mergeCell ref="M1029:M1030"/>
-    <mergeCell ref="A1031:A1032"/>
-    <mergeCell ref="B1031:B1032"/>
-    <mergeCell ref="C1031:C1032"/>
-    <mergeCell ref="D1031:D1032"/>
-    <mergeCell ref="E1031:E1032"/>
-    <mergeCell ref="F1031:F1032"/>
-    <mergeCell ref="G1031:G1032"/>
-    <mergeCell ref="H1031:H1032"/>
-    <mergeCell ref="J1031:J1032"/>
-    <mergeCell ref="L1031:L1032"/>
-    <mergeCell ref="M1031:M1032"/>
-    <mergeCell ref="A1033:A1034"/>
-    <mergeCell ref="B1033:B1034"/>
-    <mergeCell ref="C1033:C1034"/>
-    <mergeCell ref="D1033:D1034"/>
-    <mergeCell ref="E1033:E1034"/>
-    <mergeCell ref="F1033:F1034"/>
-    <mergeCell ref="G1033:G1034"/>
-    <mergeCell ref="H1033:H1034"/>
-    <mergeCell ref="J1033:J1034"/>
-    <mergeCell ref="L1033:L1034"/>
-    <mergeCell ref="M1033:M1034"/>
-    <mergeCell ref="A1035:A1036"/>
-    <mergeCell ref="B1035:B1036"/>
-    <mergeCell ref="C1035:C1036"/>
-    <mergeCell ref="D1035:D1036"/>
-    <mergeCell ref="E1035:E1036"/>
-    <mergeCell ref="F1035:F1036"/>
-    <mergeCell ref="G1035:G1036"/>
-    <mergeCell ref="H1035:H1036"/>
-    <mergeCell ref="J1035:J1036"/>
-    <mergeCell ref="L1035:L1036"/>
-    <mergeCell ref="M1035:M1036"/>
-    <mergeCell ref="A1037:A1038"/>
-    <mergeCell ref="B1037:B1038"/>
-    <mergeCell ref="C1037:C1038"/>
-    <mergeCell ref="D1037:D1038"/>
-    <mergeCell ref="E1037:E1038"/>
-    <mergeCell ref="F1037:F1038"/>
-    <mergeCell ref="G1037:G1038"/>
-    <mergeCell ref="H1037:H1038"/>
-    <mergeCell ref="J1037:J1038"/>
-    <mergeCell ref="L1037:L1038"/>
-    <mergeCell ref="M1037:M1038"/>
-    <mergeCell ref="A1043:A1047"/>
-    <mergeCell ref="B1043:B1047"/>
-    <mergeCell ref="C1043:C1047"/>
-    <mergeCell ref="D1043:D1047"/>
-    <mergeCell ref="E1043:E1047"/>
-    <mergeCell ref="F1043:F1047"/>
-    <mergeCell ref="G1043:G1047"/>
-    <mergeCell ref="H1043:H1047"/>
-    <mergeCell ref="J1043:J1047"/>
-    <mergeCell ref="L1043:L1047"/>
-    <mergeCell ref="M1043:M1047"/>
-    <mergeCell ref="A1048:A1052"/>
-    <mergeCell ref="B1048:B1052"/>
-    <mergeCell ref="C1048:C1052"/>
-    <mergeCell ref="D1048:D1052"/>
-    <mergeCell ref="E1048:E1052"/>
-    <mergeCell ref="F1048:F1052"/>
-    <mergeCell ref="G1048:G1052"/>
-    <mergeCell ref="H1048:H1052"/>
-    <mergeCell ref="J1048:J1052"/>
-    <mergeCell ref="L1048:L1052"/>
-    <mergeCell ref="M1048:M1052"/>
-    <mergeCell ref="A1053:A1057"/>
-    <mergeCell ref="B1053:B1057"/>
-    <mergeCell ref="C1053:C1057"/>
-    <mergeCell ref="D1053:D1057"/>
-    <mergeCell ref="E1053:E1057"/>
-    <mergeCell ref="F1053:F1057"/>
-    <mergeCell ref="G1053:G1057"/>
-    <mergeCell ref="H1053:H1057"/>
-    <mergeCell ref="J1053:J1057"/>
-    <mergeCell ref="L1053:L1057"/>
-    <mergeCell ref="M1053:M1057"/>
-    <mergeCell ref="A1058:A1062"/>
-    <mergeCell ref="B1058:B1062"/>
-    <mergeCell ref="C1058:C1062"/>
-    <mergeCell ref="D1058:D1062"/>
-    <mergeCell ref="E1058:E1062"/>
-    <mergeCell ref="F1058:F1062"/>
-    <mergeCell ref="G1058:G1062"/>
-    <mergeCell ref="H1058:H1062"/>
-    <mergeCell ref="J1058:J1062"/>
-    <mergeCell ref="L1058:L1062"/>
-    <mergeCell ref="M1058:M1062"/>
-    <mergeCell ref="A1065:A1069"/>
-    <mergeCell ref="B1065:B1069"/>
-    <mergeCell ref="C1065:C1069"/>
-    <mergeCell ref="D1065:D1069"/>
-    <mergeCell ref="E1065:E1069"/>
-    <mergeCell ref="F1065:F1069"/>
-    <mergeCell ref="G1065:G1069"/>
-    <mergeCell ref="H1065:H1069"/>
-    <mergeCell ref="J1065:J1069"/>
-    <mergeCell ref="L1065:L1069"/>
-    <mergeCell ref="M1065:M1069"/>
-    <mergeCell ref="A1070:A1074"/>
-    <mergeCell ref="B1070:B1074"/>
-    <mergeCell ref="C1070:C1074"/>
-    <mergeCell ref="D1070:D1074"/>
-    <mergeCell ref="E1070:E1074"/>
-    <mergeCell ref="F1070:F1074"/>
-    <mergeCell ref="G1070:G1074"/>
-    <mergeCell ref="H1070:H1074"/>
-    <mergeCell ref="J1070:J1074"/>
-    <mergeCell ref="L1070:L1074"/>
-    <mergeCell ref="M1070:M1074"/>
+    <mergeCell ref="A1009:A1014"/>
+    <mergeCell ref="B1009:B1014"/>
+    <mergeCell ref="C1009:C1014"/>
+    <mergeCell ref="E1009:E1014"/>
+    <mergeCell ref="F1009:F1014"/>
+    <mergeCell ref="G1009:G1014"/>
+    <mergeCell ref="H1009:H1014"/>
+    <mergeCell ref="J1009:J1014"/>
+    <mergeCell ref="L1009:L1014"/>
+    <mergeCell ref="M1009:M1014"/>
+    <mergeCell ref="A1015:A1020"/>
+    <mergeCell ref="B1015:B1020"/>
+    <mergeCell ref="C1015:C1020"/>
+    <mergeCell ref="D1015:D1020"/>
+    <mergeCell ref="E1015:E1020"/>
+    <mergeCell ref="F1015:F1020"/>
+    <mergeCell ref="G1015:G1020"/>
+    <mergeCell ref="H1015:H1020"/>
+    <mergeCell ref="J1015:J1020"/>
+    <mergeCell ref="L1015:L1020"/>
+    <mergeCell ref="M1015:M1020"/>
+    <mergeCell ref="A1021:A1026"/>
+    <mergeCell ref="B1021:B1026"/>
+    <mergeCell ref="C1021:C1026"/>
+    <mergeCell ref="E1021:E1026"/>
+    <mergeCell ref="F1021:F1026"/>
+    <mergeCell ref="G1021:G1026"/>
+    <mergeCell ref="H1021:H1026"/>
+    <mergeCell ref="J1021:J1026"/>
+    <mergeCell ref="L1021:L1026"/>
+    <mergeCell ref="M1021:M1026"/>
+    <mergeCell ref="A1027:A1032"/>
+    <mergeCell ref="B1027:B1032"/>
+    <mergeCell ref="C1027:C1032"/>
+    <mergeCell ref="D1027:D1032"/>
+    <mergeCell ref="E1027:E1032"/>
+    <mergeCell ref="F1027:F1032"/>
+    <mergeCell ref="G1027:G1032"/>
+    <mergeCell ref="H1027:H1032"/>
+    <mergeCell ref="J1027:J1032"/>
+    <mergeCell ref="L1027:L1032"/>
+    <mergeCell ref="M1027:M1032"/>
+    <mergeCell ref="A1033:A1038"/>
+    <mergeCell ref="B1033:B1038"/>
+    <mergeCell ref="C1033:C1038"/>
+    <mergeCell ref="D1033:D1038"/>
+    <mergeCell ref="E1033:E1038"/>
+    <mergeCell ref="F1033:F1038"/>
+    <mergeCell ref="G1033:G1038"/>
+    <mergeCell ref="H1033:H1038"/>
+    <mergeCell ref="J1033:J1038"/>
+    <mergeCell ref="L1033:L1038"/>
+    <mergeCell ref="M1033:M1038"/>
+    <mergeCell ref="A1039:A1044"/>
+    <mergeCell ref="B1039:B1044"/>
+    <mergeCell ref="C1039:C1044"/>
+    <mergeCell ref="D1039:D1044"/>
+    <mergeCell ref="E1039:E1044"/>
+    <mergeCell ref="F1039:F1044"/>
+    <mergeCell ref="G1039:G1044"/>
+    <mergeCell ref="H1039:H1044"/>
+    <mergeCell ref="J1039:J1044"/>
+    <mergeCell ref="L1039:L1044"/>
+    <mergeCell ref="M1039:M1044"/>
+    <mergeCell ref="A1045:A1050"/>
+    <mergeCell ref="B1045:B1050"/>
+    <mergeCell ref="C1045:C1050"/>
+    <mergeCell ref="D1045:D1050"/>
+    <mergeCell ref="E1045:E1050"/>
+    <mergeCell ref="F1045:F1050"/>
+    <mergeCell ref="G1045:G1050"/>
+    <mergeCell ref="H1045:H1050"/>
+    <mergeCell ref="J1045:J1050"/>
+    <mergeCell ref="L1045:L1050"/>
+    <mergeCell ref="M1045:M1050"/>
+    <mergeCell ref="A1051:A1053"/>
+    <mergeCell ref="B1051:B1053"/>
+    <mergeCell ref="C1051:C1053"/>
+    <mergeCell ref="D1051:D1053"/>
+    <mergeCell ref="E1051:E1053"/>
+    <mergeCell ref="F1051:F1053"/>
+    <mergeCell ref="G1051:G1053"/>
+    <mergeCell ref="H1051:H1053"/>
+    <mergeCell ref="J1051:J1053"/>
+    <mergeCell ref="L1051:L1053"/>
+    <mergeCell ref="M1051:M1053"/>
+    <mergeCell ref="A1054:A1056"/>
+    <mergeCell ref="B1054:B1056"/>
+    <mergeCell ref="C1054:C1056"/>
+    <mergeCell ref="D1054:D1056"/>
+    <mergeCell ref="E1054:E1056"/>
+    <mergeCell ref="F1054:F1056"/>
+    <mergeCell ref="G1054:G1056"/>
+    <mergeCell ref="H1054:H1056"/>
+    <mergeCell ref="J1054:J1056"/>
+    <mergeCell ref="L1054:L1056"/>
+    <mergeCell ref="M1054:M1056"/>
+    <mergeCell ref="A1057:A1058"/>
+    <mergeCell ref="B1057:B1058"/>
+    <mergeCell ref="C1057:C1058"/>
+    <mergeCell ref="D1057:D1058"/>
+    <mergeCell ref="E1057:E1058"/>
+    <mergeCell ref="F1057:F1058"/>
+    <mergeCell ref="G1057:G1058"/>
+    <mergeCell ref="H1057:H1058"/>
+    <mergeCell ref="J1057:J1058"/>
+    <mergeCell ref="L1057:L1058"/>
+    <mergeCell ref="M1057:M1058"/>
+    <mergeCell ref="A1059:A1060"/>
+    <mergeCell ref="B1059:B1060"/>
+    <mergeCell ref="C1059:C1060"/>
+    <mergeCell ref="D1059:D1060"/>
+    <mergeCell ref="E1059:E1060"/>
+    <mergeCell ref="F1059:F1060"/>
+    <mergeCell ref="G1059:G1060"/>
+    <mergeCell ref="H1059:H1060"/>
+    <mergeCell ref="J1059:J1060"/>
+    <mergeCell ref="L1059:L1060"/>
+    <mergeCell ref="M1059:M1060"/>
+    <mergeCell ref="A1061:A1062"/>
+    <mergeCell ref="B1061:B1062"/>
+    <mergeCell ref="C1061:C1062"/>
+    <mergeCell ref="D1061:D1062"/>
+    <mergeCell ref="E1061:E1062"/>
+    <mergeCell ref="F1061:F1062"/>
+    <mergeCell ref="G1061:G1062"/>
+    <mergeCell ref="H1061:H1062"/>
+    <mergeCell ref="J1061:J1062"/>
+    <mergeCell ref="L1061:L1062"/>
+    <mergeCell ref="M1061:M1062"/>
+    <mergeCell ref="A1063:A1064"/>
+    <mergeCell ref="B1063:B1064"/>
+    <mergeCell ref="C1063:C1064"/>
+    <mergeCell ref="D1063:D1064"/>
+    <mergeCell ref="E1063:E1064"/>
+    <mergeCell ref="F1063:F1064"/>
+    <mergeCell ref="G1063:G1064"/>
+    <mergeCell ref="H1063:H1064"/>
+    <mergeCell ref="J1063:J1064"/>
+    <mergeCell ref="L1063:L1064"/>
+    <mergeCell ref="M1063:M1064"/>
+    <mergeCell ref="A1065:A1066"/>
+    <mergeCell ref="B1065:B1066"/>
+    <mergeCell ref="C1065:C1066"/>
+    <mergeCell ref="D1065:D1066"/>
+    <mergeCell ref="E1065:E1066"/>
+    <mergeCell ref="F1065:F1066"/>
+    <mergeCell ref="G1065:G1066"/>
+    <mergeCell ref="H1065:H1066"/>
+    <mergeCell ref="J1065:J1066"/>
+    <mergeCell ref="L1065:L1066"/>
+    <mergeCell ref="M1065:M1066"/>
+    <mergeCell ref="A1067:A1068"/>
+    <mergeCell ref="B1067:B1068"/>
+    <mergeCell ref="C1067:C1068"/>
+    <mergeCell ref="D1067:D1068"/>
+    <mergeCell ref="E1067:E1068"/>
+    <mergeCell ref="F1067:F1068"/>
+    <mergeCell ref="G1067:G1068"/>
+    <mergeCell ref="H1067:H1068"/>
+    <mergeCell ref="J1067:J1068"/>
+    <mergeCell ref="L1067:L1068"/>
+    <mergeCell ref="M1067:M1068"/>
+    <mergeCell ref="A1069:A1070"/>
+    <mergeCell ref="B1069:B1070"/>
+    <mergeCell ref="C1069:C1070"/>
+    <mergeCell ref="D1069:D1070"/>
+    <mergeCell ref="E1069:E1070"/>
+    <mergeCell ref="F1069:F1070"/>
+    <mergeCell ref="G1069:G1070"/>
+    <mergeCell ref="H1069:H1070"/>
+    <mergeCell ref="J1069:J1070"/>
+    <mergeCell ref="L1069:L1070"/>
+    <mergeCell ref="M1069:M1070"/>
+    <mergeCell ref="A1071:A1072"/>
+    <mergeCell ref="B1071:B1072"/>
+    <mergeCell ref="C1071:C1072"/>
+    <mergeCell ref="D1071:D1072"/>
+    <mergeCell ref="E1071:E1072"/>
+    <mergeCell ref="F1071:F1072"/>
+    <mergeCell ref="G1071:G1072"/>
+    <mergeCell ref="H1071:H1072"/>
+    <mergeCell ref="J1071:J1072"/>
+    <mergeCell ref="L1071:L1072"/>
+    <mergeCell ref="M1071:M1072"/>
+    <mergeCell ref="A1073:A1074"/>
+    <mergeCell ref="B1073:B1074"/>
+    <mergeCell ref="C1073:C1074"/>
+    <mergeCell ref="D1073:D1074"/>
+    <mergeCell ref="E1073:E1074"/>
+    <mergeCell ref="F1073:F1074"/>
+    <mergeCell ref="G1073:G1074"/>
+    <mergeCell ref="H1073:H1074"/>
+    <mergeCell ref="J1073:J1074"/>
+    <mergeCell ref="L1073:L1074"/>
+    <mergeCell ref="M1073:M1074"/>
     <mergeCell ref="A1075:A1076"/>
     <mergeCell ref="B1075:B1076"/>
     <mergeCell ref="C1075:C1076"/>
@@ -33083,17 +34099,116 @@
     <mergeCell ref="J1075:J1076"/>
     <mergeCell ref="L1075:L1076"/>
     <mergeCell ref="M1075:M1076"/>
-    <mergeCell ref="A1085:A1086"/>
-    <mergeCell ref="B1085:B1086"/>
-    <mergeCell ref="C1085:C1086"/>
-    <mergeCell ref="D1085:D1086"/>
-    <mergeCell ref="E1085:E1086"/>
-    <mergeCell ref="F1085:F1086"/>
-    <mergeCell ref="G1085:G1086"/>
-    <mergeCell ref="H1085:H1086"/>
-    <mergeCell ref="J1085:J1086"/>
-    <mergeCell ref="L1085:L1086"/>
-    <mergeCell ref="M1085:M1086"/>
+    <mergeCell ref="A1077:A1078"/>
+    <mergeCell ref="B1077:B1078"/>
+    <mergeCell ref="C1077:C1078"/>
+    <mergeCell ref="D1077:D1078"/>
+    <mergeCell ref="E1077:E1078"/>
+    <mergeCell ref="F1077:F1078"/>
+    <mergeCell ref="G1077:G1078"/>
+    <mergeCell ref="H1077:H1078"/>
+    <mergeCell ref="J1077:J1078"/>
+    <mergeCell ref="L1077:L1078"/>
+    <mergeCell ref="M1077:M1078"/>
+    <mergeCell ref="A1079:A1080"/>
+    <mergeCell ref="B1079:B1080"/>
+    <mergeCell ref="C1079:C1080"/>
+    <mergeCell ref="D1079:D1080"/>
+    <mergeCell ref="E1079:E1080"/>
+    <mergeCell ref="F1079:F1080"/>
+    <mergeCell ref="G1079:G1080"/>
+    <mergeCell ref="H1079:H1080"/>
+    <mergeCell ref="J1079:J1080"/>
+    <mergeCell ref="L1079:L1080"/>
+    <mergeCell ref="M1079:M1080"/>
+    <mergeCell ref="A1085:A1089"/>
+    <mergeCell ref="B1085:B1089"/>
+    <mergeCell ref="C1085:C1089"/>
+    <mergeCell ref="D1085:D1089"/>
+    <mergeCell ref="E1085:E1089"/>
+    <mergeCell ref="F1085:F1089"/>
+    <mergeCell ref="G1085:G1089"/>
+    <mergeCell ref="H1085:H1089"/>
+    <mergeCell ref="J1085:J1089"/>
+    <mergeCell ref="L1085:L1089"/>
+    <mergeCell ref="M1085:M1089"/>
+    <mergeCell ref="A1090:A1094"/>
+    <mergeCell ref="B1090:B1094"/>
+    <mergeCell ref="C1090:C1094"/>
+    <mergeCell ref="D1090:D1094"/>
+    <mergeCell ref="E1090:E1094"/>
+    <mergeCell ref="F1090:F1094"/>
+    <mergeCell ref="G1090:G1094"/>
+    <mergeCell ref="H1090:H1094"/>
+    <mergeCell ref="J1090:J1094"/>
+    <mergeCell ref="L1090:L1094"/>
+    <mergeCell ref="M1090:M1094"/>
+    <mergeCell ref="A1095:A1099"/>
+    <mergeCell ref="B1095:B1099"/>
+    <mergeCell ref="C1095:C1099"/>
+    <mergeCell ref="D1095:D1099"/>
+    <mergeCell ref="E1095:E1099"/>
+    <mergeCell ref="F1095:F1099"/>
+    <mergeCell ref="G1095:G1099"/>
+    <mergeCell ref="H1095:H1099"/>
+    <mergeCell ref="J1095:J1099"/>
+    <mergeCell ref="L1095:L1099"/>
+    <mergeCell ref="M1095:M1099"/>
+    <mergeCell ref="A1100:A1104"/>
+    <mergeCell ref="B1100:B1104"/>
+    <mergeCell ref="C1100:C1104"/>
+    <mergeCell ref="D1100:D1104"/>
+    <mergeCell ref="E1100:E1104"/>
+    <mergeCell ref="F1100:F1104"/>
+    <mergeCell ref="G1100:G1104"/>
+    <mergeCell ref="H1100:H1104"/>
+    <mergeCell ref="J1100:J1104"/>
+    <mergeCell ref="L1100:L1104"/>
+    <mergeCell ref="M1100:M1104"/>
+    <mergeCell ref="A1107:A1111"/>
+    <mergeCell ref="B1107:B1111"/>
+    <mergeCell ref="C1107:C1111"/>
+    <mergeCell ref="D1107:D1111"/>
+    <mergeCell ref="E1107:E1111"/>
+    <mergeCell ref="F1107:F1111"/>
+    <mergeCell ref="G1107:G1111"/>
+    <mergeCell ref="H1107:H1111"/>
+    <mergeCell ref="J1107:J1111"/>
+    <mergeCell ref="L1107:L1111"/>
+    <mergeCell ref="M1107:M1111"/>
+    <mergeCell ref="A1112:A1116"/>
+    <mergeCell ref="B1112:B1116"/>
+    <mergeCell ref="C1112:C1116"/>
+    <mergeCell ref="D1112:D1116"/>
+    <mergeCell ref="E1112:E1116"/>
+    <mergeCell ref="F1112:F1116"/>
+    <mergeCell ref="G1112:G1116"/>
+    <mergeCell ref="H1112:H1116"/>
+    <mergeCell ref="J1112:J1116"/>
+    <mergeCell ref="L1112:L1116"/>
+    <mergeCell ref="M1112:M1116"/>
+    <mergeCell ref="A1117:A1118"/>
+    <mergeCell ref="B1117:B1118"/>
+    <mergeCell ref="C1117:C1118"/>
+    <mergeCell ref="D1117:D1118"/>
+    <mergeCell ref="E1117:E1118"/>
+    <mergeCell ref="F1117:F1118"/>
+    <mergeCell ref="G1117:G1118"/>
+    <mergeCell ref="H1117:H1118"/>
+    <mergeCell ref="J1117:J1118"/>
+    <mergeCell ref="L1117:L1118"/>
+    <mergeCell ref="M1117:M1118"/>
+    <mergeCell ref="A1127:A1128"/>
+    <mergeCell ref="B1127:B1128"/>
+    <mergeCell ref="C1127:C1128"/>
+    <mergeCell ref="D1127:D1128"/>
+    <mergeCell ref="E1127:E1128"/>
+    <mergeCell ref="F1127:F1128"/>
+    <mergeCell ref="G1127:G1128"/>
+    <mergeCell ref="H1127:H1128"/>
+    <mergeCell ref="J1127:J1128"/>
+    <mergeCell ref="L1127:L1128"/>
+    <mergeCell ref="M1127:M1128"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A63" location="freitextfelder" display="Freitextfeld"/>
@@ -33127,17 +34242,17 @@
     <hyperlink ref="B957" r:id="rId12" display="OECD-Quadratwurzel-Skala"/>
     <hyperlink ref="B992" r:id="rId13" display="«easyvote»-Broschüre"/>
     <hyperlink ref="H992" r:id="rId14" display="“easyvote” booklet"/>
-    <hyperlink ref="H1077" r:id="rId15" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1078" r:id="rId16" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="A1089" location="fnref1" display="↩︎"/>
-    <hyperlink ref="A1091" location="fnref2" display="↩︎"/>
-    <hyperlink ref="A1093" location="fnref3" display="↩︎"/>
-    <hyperlink ref="A1095" location="fnref4" display="↩︎"/>
-    <hyperlink ref="A1097" location="fnref5" display="↩︎"/>
-    <hyperlink ref="A1099" location="fnref6" display="↩︎"/>
-    <hyperlink ref="A1101" location="fnref7" display="↩︎"/>
-    <hyperlink ref="A1113" location="fnref13" display="↩︎"/>
-    <hyperlink ref="A1115" location="fnref14" display="↩︎"/>
+    <hyperlink ref="H1119" r:id="rId15" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1120" r:id="rId16" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="A1131" location="fnref1" display="↩︎"/>
+    <hyperlink ref="A1133" location="fnref2" display="↩︎"/>
+    <hyperlink ref="A1135" location="fnref3" display="↩︎"/>
+    <hyperlink ref="A1137" location="fnref4" display="↩︎"/>
+    <hyperlink ref="A1139" location="fnref5" display="↩︎"/>
+    <hyperlink ref="A1141" location="fnref6" display="↩︎"/>
+    <hyperlink ref="A1143" location="fnref7" display="↩︎"/>
+    <hyperlink ref="A1155" location="fnref13" display="↩︎"/>
+    <hyperlink ref="A1157" location="fnref14" display="↩︎"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
